--- a/data/manualDetection/resolution/originalFiles/kai_results_210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_1_1024x1024.xlsx
+++ b/data/manualDetection/resolution/originalFiles/kai_results_210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_1_1024x1024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD\Daten\Cilia\manualDetection\210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_resolution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhD\Data\Cilia\manualDetection\210301_EV38_1_Collagen_ITSwithAsc+Dexa+IGF+TGF_63x_z-stack_resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE35E8-DD33-4AD3-AF4A-C6678F130921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50DF8D-7AAF-4F54-AC34-946ED84C6A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{D4681C3C-432B-4006-A065-1F556E10F683}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.9210000000000003</v>
+        <v>8.6859999999999999</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.2130000000000001</v>
+        <v>10.42</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.6529999999999996</v>
+        <v>8.6029999999999998</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -466,7 +466,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11.41</v>
+        <v>14.052</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8.2780000000000005</v>
+        <v>9.5109999999999992</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>9.57</v>
+        <v>11.829000000000001</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.7510000000000003</v>
+        <v>9.8010000000000002</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.8129999999999997</v>
+        <v>7.1669999999999998</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.7939999999999996</v>
+        <v>8.4890000000000008</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -550,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.4870000000000001</v>
+        <v>11.041</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.6849999999999996</v>
+        <v>6.0170000000000003</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.9809999999999999</v>
+        <v>7.7960000000000003</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>9.3870000000000005</v>
+        <v>12.281000000000001</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -606,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.1929999999999996</v>
+        <v>9.6790000000000003</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -620,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.6050000000000004</v>
+        <v>13.082000000000001</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -634,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>6.9180000000000001</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="C17">
         <v>3</v>
